--- a/Probabilities.xlsx
+++ b/Probabilities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julie\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julie\PycharmProjects\starwalkers_telegrambot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20979F17-A4F3-42B1-B2DB-EA5AD53D498B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE58172-EF38-4DF1-8350-FDEF402CB5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classeur2" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -496,11 +496,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C28"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -521,11 +521,11 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.50975458650049E-3</v>
+        <v>2.8695308477804898E-3</v>
       </c>
       <c r="C2">
         <f>B2*100</f>
-        <v>0.35097545865004898</v>
+        <v>0.28695308477804898</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -533,11 +533,11 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.0371787412704901E-3</v>
+        <v>3.33391919951649E-3</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C28" si="0">B3*100</f>
-        <v>0.40371787412704901</v>
+        <v>0.33339191995164902</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -545,11 +545,11 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.6438609273868501E-3</v>
+        <v>3.8734614884875299E-3</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>0.46438609273868503</v>
+        <v>0.38734614884875296</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -557,11 +557,11 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>5.3417115503099199E-3</v>
+        <v>4.5003201952140796E-3</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>0.534171155030992</v>
+        <v>0.45003201952140798</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -569,11 +569,11 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>6.1444308373745198E-3</v>
+        <v>5.2286261060413503E-3</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>0.61444308373745193</v>
+        <v>0.52286261060413508</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -581,11 +581,11 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>7.0677778011222899E-3</v>
+        <v>6.07479685242188E-3</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>0.70677778011222903</v>
+        <v>0.60747968524218798</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -593,11 +593,11 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>8.1298796207757099E-3</v>
+        <v>7.0579070007617296E-3</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>0.81298796207757096</v>
+        <v>0.70579070007617295</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -605,11 +605,11 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>9.3515875156416298E-3</v>
+        <v>8.2001180354766608E-3</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>0.93515875156416295</v>
+        <v>0.82001180354766612</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -617,11 +617,11 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>1.07568860969629E-2</v>
+        <v>9.5271779280305599E-3</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>1.0756886096962899</v>
+        <v>0.95271779280305602</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -629,11 +629,11 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>1.2373364234628001E-2</v>
+        <v>1.1069001553351001E-2</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>1.2373364234628002</v>
+        <v>1.1069001553351001</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -641,11 +641,11 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>1.42327566828097E-2</v>
+        <v>1.28603450374957E-2</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>1.42327566828097</v>
+        <v>1.28603450374957</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -653,11 +653,11 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>1.6371567097746099E-2</v>
+        <v>1.49415892378633E-2</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>1.63715670977461</v>
+        <v>1.49415892378633</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -665,11 +665,11 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>1.8831784678770402E-2</v>
+        <v>1.7359650017329899E-2</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>1.8831784678770402</v>
+        <v>1.73596500173299</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -677,11 +677,11 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>2.1661708501710598E-2</v>
+        <v>2.01690358319126E-2</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>2.1661708501710599</v>
+        <v>2.0169035831912598</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -689,11 +689,11 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>2.4916895728000502E-2</v>
+        <v>2.34330764723297E-2</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>2.4916895728000501</v>
+        <v>2.3433076472329701</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -701,11 +701,11 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>2.8661252304776601E-2</v>
+        <v>2.7225350658023201E-2</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>2.8661252304776603</v>
+        <v>2.7225350658023202</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -713,11 +713,11 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>3.2968287568620802E-2</v>
+        <v>3.1631344664776302E-2</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>3.2968287568620802</v>
+        <v>3.1631344664776302</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -725,11 +725,11 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>3.7922557383375001E-2</v>
+        <v>3.6750379375077698E-2</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>3.7922557383375</v>
+        <v>3.6750379375077697</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -737,11 +737,11 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>4.3621324143756003E-2</v>
+        <v>4.2697849191220598E-2</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>4.3621324143756004</v>
+        <v>4.2697849191220598</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -749,11 +749,11 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>5.0176466234020702E-2</v>
+        <v>4.9607823281208198E-2</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>5.0176466234020705</v>
+        <v>4.9607823281208194</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -761,11 +761,11 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>5.7716674428238399E-2</v>
+        <v>5.7636067795321003E-2</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>5.7716674428238397</v>
+        <v>5.7636067795321004</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -773,11 +773,11 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>6.6389978351975507E-2</v>
+        <v>6.6963557180812802E-2</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>6.6389978351975509</v>
+        <v>6.6963557180812803</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -785,11 +785,11 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>7.6366652604976007E-2</v>
+        <v>7.7800553747561702E-2</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>7.6366652604976011</v>
+        <v>7.78005537475617</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -797,11 +797,11 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>8.7842559597935896E-2</v>
+        <v>9.0391347447139503E-2</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>8.7842559597935903</v>
+        <v>9.0391347447139498</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -809,11 +809,11 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.10104299473006</v>
+        <v>0.105019762710436</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>10.104299473006</v>
+        <v>10.501976271043601</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -821,11 +821,11 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.116227109396057</v>
+        <v>0.122015556480183</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>11.6227109396057</v>
+        <v>12.201555648018299</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -833,11 +833,11 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>0.13369299865519699</v>
+        <v>0.141761851664224</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>13.369299865519698</v>
+        <v>14.1761851664224</v>
       </c>
     </row>
   </sheetData>
